--- a/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_condition_descriptions.xlsx
+++ b/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_condition_descriptions.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Observation for abuse/neglect</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">No ICD-9 code for Observation for abuse/neglect</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">comments_icd9</t>
   </si>
   <si>
-    <t xml:space="preserve">icd_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">comments_icd10</t>
   </si>
   <si>
     <t xml:space="preserve">767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">P10-P15,P52.4,P52.6,P52.8,P52.9</t>
@@ -2071,17 +2071,19 @@
         <v>152</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2"/>
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
       <c r="C2" t="s">
         <v>156</v>
       </c>
@@ -2091,151 +2093,813 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3"/>
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4"/>
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5"/>
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
       <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5"/>
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6"/>
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
       <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6"/>
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7"/>
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8"/>
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9"/>
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10"/>
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
       <c r="C10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10"/>
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11"/>
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12"/>
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13"/>
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
       <c r="C13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13"/>
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>191</v>
       </c>
-      <c r="B15"/>
-      <c r="C15" t="s">
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
         <v>192</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2267,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -2277,7 +2941,9 @@
       <c r="B2" t="s">
         <v>195</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
       <c r="D2" t="s">
         <v>196</v>
       </c>
@@ -2292,7 +2958,9 @@
       <c r="B3" t="s">
         <v>199</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
       <c r="D3" t="s">
         <v>200</v>
       </c>
@@ -2307,7 +2975,9 @@
       <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
       <c r="D4" t="s">
         <v>204</v>
       </c>
@@ -2322,11 +2992,15 @@
       <c r="B5" t="s">
         <v>207</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
       <c r="D5" t="s">
         <v>208</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2335,11 +3009,15 @@
       <c r="B6" t="s">
         <v>210</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
       <c r="D6" t="s">
         <v>211</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2348,7 +3026,9 @@
       <c r="B7" t="s">
         <v>213</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
       <c r="D7" t="s">
         <v>214</v>
       </c>
@@ -2363,11 +3043,15 @@
       <c r="B8" t="s">
         <v>217</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
       <c r="D8" t="s">
         <v>218</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2376,7 +3060,9 @@
       <c r="B9" t="s">
         <v>220</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
       <c r="D9" t="s">
         <v>221</v>
       </c>
@@ -2391,7 +3077,9 @@
       <c r="B10" t="s">
         <v>224</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
       <c r="D10" t="s">
         <v>225</v>
       </c>
@@ -2406,7 +3094,9 @@
       <c r="B11" t="s">
         <v>228</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
       <c r="D11" t="s">
         <v>229</v>
       </c>
@@ -2421,11 +3111,15 @@
       <c r="B12" t="s">
         <v>232</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
       <c r="D12" t="s">
         <v>233</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2440,7 +3134,9 @@
       <c r="D13" t="s">
         <v>237</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2449,11 +3145,15 @@
       <c r="B14" t="s">
         <v>239</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="s">
         <v>240</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2462,7 +3162,9 @@
       <c r="B15" t="s">
         <v>242</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="s">
         <v>243</v>
       </c>
@@ -2477,11 +3179,15 @@
       <c r="B16" t="s">
         <v>246</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="s">
         <v>247</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2490,7 +3196,9 @@
       <c r="B17" t="s">
         <v>249</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="s">
         <v>250</v>
       </c>
@@ -2505,11 +3213,15 @@
       <c r="B18" t="s">
         <v>253</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="s">
         <v>254</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2535,7 +3247,9 @@
       <c r="B20" t="s">
         <v>261</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
       <c r="D20" t="s">
         <v>262</v>
       </c>
@@ -2550,7 +3264,9 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
       <c r="D21" t="s">
         <v>266</v>
       </c>
@@ -2565,7 +3281,9 @@
       <c r="B22" t="s">
         <v>269</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
       <c r="D22" t="s">
         <v>270</v>
       </c>
@@ -2580,7 +3298,9 @@
       <c r="B23" t="s">
         <v>273</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
       <c r="D23" t="s">
         <v>274</v>
       </c>
@@ -2595,7 +3315,9 @@
       <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
       <c r="D24" t="s">
         <v>278</v>
       </c>
@@ -2610,11 +3332,15 @@
       <c r="B25" t="s">
         <v>281</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
       <c r="D25" t="s">
         <v>282</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2640,11 +3366,15 @@
       <c r="B27" t="s">
         <v>289</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
       <c r="D27" t="s">
         <v>290</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2653,7 +3383,9 @@
       <c r="B28" t="s">
         <v>292</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
       <c r="D28" t="s">
         <v>293</v>
       </c>
@@ -2685,7 +3417,9 @@
       <c r="B30" t="s">
         <v>301</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
       <c r="D30" t="s">
         <v>302</v>
       </c>
@@ -2700,11 +3434,15 @@
       <c r="B31" t="s">
         <v>305</v>
       </c>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
       <c r="D31" t="s">
         <v>306</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2713,11 +3451,15 @@
       <c r="B32" t="s">
         <v>308</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
       <c r="D32" t="s">
         <v>309</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2726,11 +3468,15 @@
       <c r="B33" t="s">
         <v>311</v>
       </c>
-      <c r="C33"/>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
       <c r="D33" t="s">
         <v>312</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2739,11 +3485,15 @@
       <c r="B34" t="s">
         <v>314</v>
       </c>
-      <c r="C34"/>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
       <c r="D34" t="s">
         <v>315</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2769,7 +3519,9 @@
       <c r="B36" t="s">
         <v>322</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
       <c r="D36" t="s">
         <v>323</v>
       </c>
@@ -2784,11 +3536,15 @@
       <c r="B37" t="s">
         <v>326</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
       <c r="D37" t="s">
         <v>327</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -2797,11 +3553,15 @@
       <c r="B38" t="s">
         <v>329</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
       <c r="D38" t="s">
         <v>330</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2833,7 +3593,9 @@
       <c r="D40" t="s">
         <v>339</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -2842,11 +3604,15 @@
       <c r="B41" t="s">
         <v>341</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
       <c r="D41" t="s">
         <v>342</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2873,7 +3639,7 @@
         <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -2883,7 +3649,9 @@
       <c r="B2" t="s">
         <v>344</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
       <c r="D2" t="s">
         <v>345</v>
       </c>
@@ -2895,8 +3663,12 @@
       <c r="B3" t="s">
         <v>347</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2905,7 +3677,9 @@
       <c r="B4" t="s">
         <v>349</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
       <c r="D4" t="s">
         <v>350</v>
       </c>
@@ -2917,8 +3691,12 @@
       <c r="B5" t="s">
         <v>351</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2927,8 +3705,12 @@
       <c r="B6" t="s">
         <v>353</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
